--- a/Mid-Thesis Report/MTR References.xlsx
+++ b/Mid-Thesis Report/MTR References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B1479E6-F821-4D73-9F49-21268B50DBC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26CA9E02-C160-4D1C-9478-C236BD417E49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Predict Churn</t>
   </si>
   <si>
-    <t>Tokenization, Standardization</t>
-  </si>
-  <si>
     <t>Logistic Regression
 Naïve Bayes
 Random Forest
@@ -76,6 +73,10 @@
   </si>
   <si>
     <t>Aim</t>
+  </si>
+  <si>
+    <t>Tokenization, Standardization
+Train:Test = 9:!</t>
   </si>
 </sst>
 </file>
@@ -440,7 +441,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -484,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>7</v>
@@ -507,11 +508,11 @@
         <v>10</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -524,10 +525,10 @@
         <v>2019</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>

--- a/Mid-Thesis Report/MTR References.xlsx
+++ b/Mid-Thesis Report/MTR References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26CA9E02-C160-4D1C-9478-C236BD417E49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCD131B2-189A-427C-B5D4-B49236144907}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Sno</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Problem(s)</t>
   </si>
   <si>
-    <t>Presprocessing</t>
-  </si>
-  <si>
     <t>Evaluation</t>
   </si>
   <si>
@@ -53,13 +50,6 @@
   </si>
   <si>
     <t>Predict Churn</t>
-  </si>
-  <si>
-    <t>Logistic Regression
-Naïve Bayes
-Random Forest
-KNN
-Decision Trees</t>
   </si>
   <si>
     <t>Churn Prediction Using Machine Learning and Recommendations Plans for Telecoms</t>
@@ -72,18 +62,84 @@
     <t>Keywords</t>
   </si>
   <si>
-    <t>Aim</t>
+    <t>Churn Prediction in Telecom using Classification Algorithms</t>
+  </si>
+  <si>
+    <t>Processing</t>
   </si>
   <si>
     <t>Tokenization, Standardization
-Train:Test = 9:!</t>
+Train:Test = 9:1</t>
+  </si>
+  <si>
+    <t>k = 10 cross validation with hold-out (30%) method</t>
+  </si>
+  <si>
+    <t>Naïve Bayes (auc - 0.82)
+SVM (auc - 0.83)
+Decision Trees (auc - 0.76)</t>
+  </si>
+  <si>
+    <t>Customers Churn Prediction and Attribute Selection in Telecom Industry Using Kernelized Extreme Learning Machine and Bat Algorithms</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>IBM Watson Dataset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Logistic Regression (accuracy - 78.9)
+Naïve Bayes (76.45)
+Random Forest (77.87)
+KNN (79.86%) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Best!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Decision Trees (73.05)
+ANN (82.83% - accuracy)</t>
+    </r>
+  </si>
+  <si>
+    <t>Methods For Customer Retention In Telecom Industries</t>
+  </si>
+  <si>
+    <t>Multiple Datasets</t>
+  </si>
+  <si>
+    <t>Literature Survey</t>
+  </si>
+  <si>
+    <t>Churn prediction is better with hybrid algorithms as compared to single algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine learning, meta-heuristic methods, neural networks, data mining techniques, sampling, boosting, advanced under-sampling, Weighted Random Forest, SMOTE, Bosting based churn prediction, Gentle AdaBoost, Decision Tree, SVM, Orientation Ordering Pruning Method (OOPM), Random Forest and Transduction, ensemble approach, Random Forest, Gradient Boosted Decision Trees, k-means, Improved Balanced Random Forest (IBRF), Multi-Layer Perceptron, PCA, Logistic Regression, AntMiner+, Active Learning Based Approach (ALBA), particle Swarm Optimization, Hybrid Churn prediction, Hierarchical Linear Model (HLM), Artificial Neural Netowrk (ANN), Self-Organizing Maps (SOM), MLP-ANN </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +151,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -149,14 +213,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,104 +514,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B6" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mid-Thesis Report/MTR References.xlsx
+++ b/Mid-Thesis Report/MTR References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCD131B2-189A-427C-B5D4-B49236144907}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0EC34FF0-76DD-40CD-BB31-2EC1A38D70B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mid-Thesis Report/MTR References.xlsx
+++ b/Mid-Thesis Report/MTR References.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0EC34FF0-76DD-40CD-BB31-2EC1A38D70B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F3CEC7-8B9D-4EDC-ACB1-36FCCA10BF59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Sno</t>
   </si>
@@ -60,9 +63,6 @@
   </si>
   <si>
     <t>Keywords</t>
-  </si>
-  <si>
-    <t>Churn Prediction in Telecom using Classification Algorithms</t>
   </si>
   <si>
     <t>Processing</t>
@@ -78,15 +78,6 @@
     <t>Naïve Bayes (auc - 0.82)
 SVM (auc - 0.83)
 Decision Trees (auc - 0.76)</t>
-  </si>
-  <si>
-    <t>Customers Churn Prediction and Attribute Selection in Telecom Industry Using Kernelized Extreme Learning Machine and Bat Algorithms</t>
-  </si>
-  <si>
-    <t>Naïve Bayes</t>
-  </si>
-  <si>
-    <t>IBM Watson Dataset</t>
   </si>
   <si>
     <r>
@@ -133,6 +124,156 @@
   </si>
   <si>
     <t xml:space="preserve">machine learning, meta-heuristic methods, neural networks, data mining techniques, sampling, boosting, advanced under-sampling, Weighted Random Forest, SMOTE, Bosting based churn prediction, Gentle AdaBoost, Decision Tree, SVM, Orientation Ordering Pruning Method (OOPM), Random Forest and Transduction, ensemble approach, Random Forest, Gradient Boosted Decision Trees, k-means, Improved Balanced Random Forest (IBRF), Multi-Layer Perceptron, PCA, Logistic Regression, AntMiner+, Active Learning Based Approach (ALBA), particle Swarm Optimization, Hybrid Churn prediction, Hierarchical Linear Model (HLM), Artificial Neural Netowrk (ANN), Self-Organizing Maps (SOM), MLP-ANN </t>
+  </si>
+  <si>
+    <t>Real time customer churn scoring model for telecommunications industry</t>
+  </si>
+  <si>
+    <t>Accuracy: 
+Logistic Regression (97.8%)
+Decision Tree (78.3%)
+Random Forest (79.2%)
+F1 Measure: 
+Logistic Regression (97.8%) 
+Decision Tree (77.9%)
+Random Forest (77.8%)</t>
+  </si>
+  <si>
+    <t>ROC Curve, Xgboost, Weka, Spark, 80-20, Bias, Precision-Recall, Feature Importance</t>
+  </si>
+  <si>
+    <t>Feature Importance, Logarithmic Transformation</t>
+  </si>
+  <si>
+    <t>Teaching Artificial Intelligence and machine Learning in marketing</t>
+  </si>
+  <si>
+    <t>Experimentation with Azure ML Studio</t>
+  </si>
+  <si>
+    <t>Not so important</t>
+  </si>
+  <si>
+    <t>Customer Churn Prediction System: a machine learning approach</t>
+  </si>
+  <si>
+    <t>Gravitational Search Algorithm for Feature Selection</t>
+  </si>
+  <si>
+    <t>AUC: 
+Model Logistic regression 82,  Adaboost classifier 78, Adaboost classifier (Extra Tree) KNN classifier 83, Random Forest 84, Random forest (adaboost) Naive bayes (gaussian) 72, SVM classifier linear SVM classifier poly 80, SVM (adaboost) XGBoost 80, CatBoost 80</t>
+  </si>
+  <si>
+    <t>A False negative Cost Minimization Ensemble Methods for Customer Churn Analysis</t>
+  </si>
+  <si>
+    <t>Minimize misclassification cost</t>
+  </si>
+  <si>
+    <t>Churners prediction using relational classifier based on mining the social network connection structure</t>
+  </si>
+  <si>
+    <t>Telecommunication Service Subscriber Churn Likelihood Prediction Analysis Using Diverse Machine Learning Model</t>
+  </si>
+  <si>
+    <t>Feature Importance result:
+Contract_month-to-month, tenure, InternetService_FiberOptic</t>
+  </si>
+  <si>
+    <t>Accuracy:
+Random Forest 77.87%, XGBoost 76.45%, DNN 80.62%
+AUC:
+Randome Forest 82.78, Accuracy 76.45, AUC 84.36</t>
+  </si>
+  <si>
+    <t>Performed performance analysis and time processing comparison</t>
+  </si>
+  <si>
+    <t>Projection pursuit Random Forest using discriminant feature analysis model for churners prediction in telecom industry discriminant random forest Linear discriminant analysis oblique tree Project pursuit index Support vector machines</t>
+  </si>
+  <si>
+    <t>PMM - predictive Mean matching</t>
+  </si>
+  <si>
+    <t>PPForest with LDA - Accuracy 0.73, AUC 0.75
+PPForest with SVM - Accuracy 0.67, AUC 0.73</t>
+  </si>
+  <si>
+    <t>Survival analysis methods for churn prevention in telecommunications industry</t>
+  </si>
+  <si>
+    <t>Survival Method</t>
+  </si>
+  <si>
+    <t>Semi parametric Cox Propotional Model
+Parametric Weibull &amp; Log normal survival model
+Best model: log-normal model</t>
+  </si>
+  <si>
+    <t>Determining the intervening effects of exploratory data analysis and feature engineering in telecoms customer churn modelling</t>
+  </si>
+  <si>
+    <t>Feature Selection using CorrelationMatrix Operator
+Tenure - TotalCharges = 0.83
+MonthlyCharges -TotalCharges = 0.65
+Total Charges is discarded!!
+Rapidminer to do feature selection:
+Contract, OnlineSecurity, TechSupport, Tenure &amp; DeviceProtection</t>
+  </si>
+  <si>
+    <t>AUC:
+Gradient Boosted Trees (Before Over sampling) 0.83
+GBT (after oversampling) 0.865
+GLM 0.841, LR 0.841</t>
+  </si>
+  <si>
+    <t>All classifiers achieved more than 70% accuracy
+Oversampling is a accuracy booster
+Recommended: GBT with oversampling</t>
+  </si>
+  <si>
+    <t>Customer churn: A study of factors affecting customer churn using machine learning</t>
+  </si>
+  <si>
+    <t>SHAP, LIME (Local interpretable model agnostic explanations)</t>
+  </si>
+  <si>
+    <t>Can be leveraged for a good future  research section</t>
+  </si>
+  <si>
+    <t>A Machine Learning Algorithm for Churn Reduction &amp; Revenue Maximization: An Application in the Telecommunication Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression (accuracy - 75.3%)
+</t>
+  </si>
+  <si>
+    <t>Top 5 Significant features:
+FiberOptic, MonthToMonthCOntract, DSL, OneYearContract, StreamingMovies</t>
+  </si>
+  <si>
+    <t>An effective classifier for predicting churn in telecommunication</t>
+  </si>
+  <si>
+    <t>Accuracy:
+KNN 0.754, RF 0.775, XGB 0.798</t>
+  </si>
+  <si>
+    <t>Prediction of Customer Churn in Telecommunication using Machine Learning Algorithms</t>
+  </si>
+  <si>
+    <t>Master's disseration of soemone else</t>
+  </si>
+  <si>
+    <t>Customer Churn Prediction in Telecommunication Industry Using Machine Learning Classifiers</t>
+  </si>
+  <si>
+    <t>Random Forest with RFE - AUC 0.984, Accuracy - 0.777
+Logistic Regression, ANN</t>
+  </si>
+  <si>
+    <t>Feature Selection:
+total charges, monthly contract and fiber optic Internet service, senior citizen</t>
   </si>
 </sst>
 </file>
@@ -164,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +315,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,6 +392,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,20 +684,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="30" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -551,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -580,10 +750,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -605,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -621,89 +791,129 @@
         <v>2017</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>2021</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -711,102 +921,212 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+    <row r="13" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>

--- a/Mid-Thesis Report/MTR References.xlsx
+++ b/Mid-Thesis Report/MTR References.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F3CEC7-8B9D-4EDC-ACB1-36FCCA10BF59}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BDB51823-E9FC-4647-A0AF-6D7ADBEBB57E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Sno</t>
   </si>
@@ -274,6 +274,44 @@
   <si>
     <t>Feature Selection:
 total charges, monthly contract and fiber optic Internet service, senior citizen</t>
+  </si>
+  <si>
+    <t>Applications of Data Mining Techniques for Churn Prediction and Cross-selling in the Telecommunications Industry</t>
+  </si>
+  <si>
+    <t>KNN Split Data 80-20 Accuracy 75.02%, AUC 0.794
+KNN Cross Validation 76.36 +_ 1.40%, AUC 0.810</t>
+  </si>
+  <si>
+    <t>Feature Selection:
+Contract, Tenure, Monthly Charges, Total Charges</t>
+  </si>
+  <si>
+    <t>Customer churn prediction model using data mining techniques</t>
+  </si>
+  <si>
+    <t>ABC based neural network approach for churn prediction in telecommunication sector</t>
+  </si>
+  <si>
+    <t>ABC - Artifical Bee Colony NN</t>
+  </si>
+  <si>
+    <t>Customer Churn Prediction Modelling Based on Behavioural patterns Analysis using Deep Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Hot Encoding, </t>
+  </si>
+  <si>
+    <t>Deep Learning 80.3% accuracy ANN</t>
+  </si>
+  <si>
+    <t>Churn Prediction in Telecom using Classification Algorithms</t>
+  </si>
+  <si>
+    <t>The results gave the accuracy of 80.17% for random forests, 79.82% for support vector machines, 78.98% for XGBoost and 73.80% for the logistic regression with the AUC of 84%. As expected, the random forest outperformed the other predictive models.</t>
+  </si>
+  <si>
+    <t>Predicting Telecommunication Customer Churn using Machine Learning Techniques</t>
   </si>
 </sst>
 </file>
@@ -305,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,6 +444,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -685,9 +732,9 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +978,9 @@
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
         <v>37</v>
@@ -1130,54 +1179,110 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1185,14 +1290,24 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
@@ -1208,6 +1323,7 @@
       <c r="I25" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I23" xr:uid="{80FDAC3F-098C-47F0-929F-019F6AC35391}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Mid-Thesis Report/MTR References.xlsx
+++ b/Mid-Thesis Report/MTR References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BDB51823-E9FC-4647-A0AF-6D7ADBEBB57E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B74B7D3-56BB-4E38-8DA3-C63D867EF292}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,9 +732,9 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1323,6 @@
       <c r="I25" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I23" xr:uid="{80FDAC3F-098C-47F0-929F-019F6AC35391}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
